--- a/information_recovery/practice3/Practice_03_IR_indexing_weighting.xlsx
+++ b/information_recovery/practice3/Practice_03_IR_indexing_weighting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\PyCharmProjects\2018-B-GR1-Python\information_recovery\practice3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63419EE4-86F1-42ED-95DB-A8B8261371AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4F045B-1237-4600-8BDD-53AC28CE0C4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
   </bookViews>

--- a/information_recovery/practice3/Practice_03_IR_indexing_weighting.xlsx
+++ b/information_recovery/practice3/Practice_03_IR_indexing_weighting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\PyCharmProjects\2018-B-GR1-Python\information_recovery\practice3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Python\olmedo-vinueza-alexander-daniel\information_recovery\practice3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4F045B-1237-4600-8BDD-53AC28CE0C4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5557D1D7-BC1D-40DD-8DB2-6F071F699264}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,54 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
-  <si>
-    <t>Col 1-10</t>
-  </si>
-  <si>
-    <t>Col 11-20</t>
-  </si>
-  <si>
-    <t>Col 21-50</t>
-  </si>
-  <si>
-    <t>Col 51-100</t>
-  </si>
-  <si>
-    <t>Col 101-200</t>
-  </si>
-  <si>
-    <t>Col 201-500</t>
-  </si>
-  <si>
-    <t>Col 501-1000</t>
-  </si>
-  <si>
-    <t>Col 1001-2000</t>
-  </si>
-  <si>
-    <t>Col 2001-5000</t>
-  </si>
-  <si>
-    <t>Variants: read several files instead of only one, uncompress a file if it is compressed, insert an option to print</t>
-  </si>
-  <si>
-    <t>or not the index, print the indexing time. For large collections, you must not print the index!</t>
-  </si>
-  <si>
-    <t>Read several files and uncompress if it's compressed:</t>
-  </si>
-  <si>
-    <t>Print the index:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Exercise 2: Collection Statistics</t>
-  </si>
-  <si>
-    <t>Modify your indexing program so that it computes different statistics on the indexed collection, for instance:</t>
-  </si>
-  <si>
-    <t>Plot the evolution of these statistics as the collection size grows</t>
   </si>
   <si>
     <t>Total document length</t>
@@ -91,27 +46,6 @@
   </si>
   <si>
     <t>Collection size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1. document length,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2. term length,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3. vocabulary size,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4. collection frequency of terms.</t>
-  </si>
-  <si>
-    <t>Exercise 3: Stop-words</t>
-  </si>
-  <si>
-    <t>Download a stop-words list (cf. list, lecture n°2).</t>
-  </si>
-  <si>
-    <t>Compute again the statistics of the exercise n°2</t>
   </si>
   <si>
     <t>Stop word list:</t>
@@ -159,112 +93,7 @@
     <t xml:space="preserve"> "yours", "yourself", "yourselves", "the")</t>
   </si>
   <si>
-    <t>Exercise 4: Porter’s Stemmer</t>
-  </si>
-  <si>
-    <t>Download a Porter’s Stemmer (cf. list, lecture n°2)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Index each of these files using your indexing program (cf. Practical session n°1: dictionary, postings lists, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>df</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>tf</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>). Build a time efficiency graph of your program.</t>
-    </r>
-  </si>
-  <si>
-    <t>As the collection size increases, the time it takes to process also increases</t>
-  </si>
-  <si>
-    <t>Time efficiency (seconds)</t>
-  </si>
-  <si>
-    <t>As the collections size increases the average documente decreases. The vocabulary size increases, on the other hand.</t>
-  </si>
-  <si>
-    <r>
-      <t>Refresh the index of the 9</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPSMT"/>
-      </rPr>
-      <t xml:space="preserve">th </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPSMT"/>
-      </rPr>
-      <t>file of the exercise n°1, removing stop words.</t>
-    </r>
-  </si>
-  <si>
     <t>After removing the stop words the total document length decreases, but it almost doesn't affect the vocabulary size. It remains pretty much the same.</t>
-  </si>
-  <si>
-    <r>
-      <t>Refresh the index of the 9</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPSMT"/>
-      </rPr>
-      <t xml:space="preserve">th </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPSMT"/>
-      </rPr>
-      <t>file of the exercise n°1, applying Porter's stemmer.</t>
-    </r>
-  </si>
-  <si>
-    <t>After applying the Porter's Stemmer the document size increases over removing the stop words, but the vocabulary size decreases significantly.</t>
   </si>
   <si>
     <t>Exercise 1: Increasing (again) the size of the collection</t>
@@ -339,6 +168,27 @@
       <t>).</t>
     </r>
   </si>
+  <si>
+    <t>Compute again the collection statistics (cf. Exercise 2, Practical Session 2), without stop-words neither</t>
+  </si>
+  <si>
+    <t>stemmer</t>
+  </si>
+  <si>
+    <t>The index took 62 minutes to compute, on a i7 CPU, with 16 GB of RAM</t>
+  </si>
+  <si>
+    <t>As the collection size increases to 9800, the average document length grows, when it was decreasing before. The vocabulary size grows in a more linear fashion.</t>
+  </si>
+  <si>
+    <t>Exercise 3: Collection Statistics using stop-words and stemmer</t>
+  </si>
+  <si>
+    <t>Refresh the index, removing stop-words and applying Porter's stemmer.</t>
+  </si>
+  <si>
+    <t>Compute again the statistics of the exercise n°2.</t>
+  </si>
 </sst>
 </file>
 
@@ -394,21 +244,7 @@
     </font>
     <font>
       <b/>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="TimesNewRomanPSMT"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="TimesNewRomanPSMT"/>
     </font>
@@ -419,13 +255,34 @@
       <color rgb="FF000000"/>
       <name val="TimesNewRomanPS-ItalicMT"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPS-BoldMT"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -455,19 +312,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -475,7 +326,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +399,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$83</c:f>
+              <c:f>Sheet1!$D$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -580,10 +434,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$84:$D$92</c:f>
+              <c:f>Sheet1!$C$33:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -610,42 +464,48 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>9804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$84:$E$92</c:f>
+              <c:f>Sheet1!$D$33:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>22373</c:v>
+                  <c:v>22282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42737</c:v>
+                  <c:v>43096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80113</c:v>
+                  <c:v>81603</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119744</c:v>
+                  <c:v>124320</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>255814</c:v>
+                  <c:v>263164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>456532</c:v>
+                  <c:v>466867</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>722913</c:v>
+                  <c:v>738063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1139876</c:v>
+                  <c:v>1159233</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2642185</c:v>
+                  <c:v>2692121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10907091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,671 +794,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-EC"/>
-              <a:t>Vocabulary</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-EC" baseline="0"/>
-              <a:t> Size</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$83</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Vocabulary size</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$84:$D$92</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$84:$G$92</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6078</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9874</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16967</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22891</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39701</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65027</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96036</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>145008</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>290490</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C1F-457F-B3D2-D97998B0366E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Stop words removed</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$136:$D$144</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$136:$G$144</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5855</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9623</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16699</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22620</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39415</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64737</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>95739</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>144710</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>290192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3C1F-457F-B3D2-D97998B0366E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Porter's Stemmer</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$174:$D$182</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$174:$G$182</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5043</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7863</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13692</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18945</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32905</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55288</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>83290</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128745</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>264620</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3C1F-457F-B3D2-D97998B0366E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1900176223"/>
-        <c:axId val="1839692319"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1900176223"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-EC"/>
-                  <a:t>Collection Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-EC"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1839692319"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1839692319"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1900176223"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:miter lim="800000"/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1651,11 +846,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$21</c:f>
+              <c:f>Sheet1!$E$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time efficiency (seconds)</c:v>
+                  <c:v>Average document length</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1686,513 +881,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$22:$D$30</c:f>
+              <c:f>Sheet1!$C$34:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>9804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$22:$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.87</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.72</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.03</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>314.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C597-4D91-9F4D-4B6C645067C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1967231295"/>
-        <c:axId val="1918781343"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1967231295"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-EC"/>
-                  <a:t>Collection Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-EC"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1918781343"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1918781343"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-EC"/>
-                  <a:t>Time</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-EC"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1967231295"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:miter lim="800000"/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$83</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average document length</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$84:$D$92</c:f>
+              <c:f>Sheet1!$E$34:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2154.8000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>1632.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>1243.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>1315.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>933.73400000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>500</c:v>
+                  <c:v>738.06299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>579.61649999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2000</c:v>
+                  <c:v>538.42420000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$84:$F$92</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2237.3000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2136.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1602.26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1197.44</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1279.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>913.06399999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>722.91300000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>569.93799999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>528.43700000000001</c:v>
+                  <c:v>1112.5143818849449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2432,7 +1186,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2484,7 +1238,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$83</c:f>
+              <c:f>Sheet1!$F$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2519,72 +1273,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$84:$D$92</c:f>
+              <c:f>Sheet1!$C$34:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>9804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$84:$G$92</c:f>
+              <c:f>Sheet1!$F$34:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6078</c:v>
+                  <c:v>9561</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9874</c:v>
+                  <c:v>16206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16967</c:v>
+                  <c:v>21661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22891</c:v>
+                  <c:v>36535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39701</c:v>
+                  <c:v>59190</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65027</c:v>
+                  <c:v>87146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96036</c:v>
+                  <c:v>131918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>145008</c:v>
+                  <c:v>260747</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>290490</c:v>
+                  <c:v>612407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2824,7 +1578,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2898,7 +1652,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$83</c:f>
+              <c:f>Sheet1!$D$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2933,7 +1687,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$84:$D$92</c:f>
+              <c:f>Sheet1!$C$33:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2969,36 +1723,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$84:$E$92</c:f>
+              <c:f>Sheet1!$D$33:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>22373</c:v>
+                  <c:v>22282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42737</c:v>
+                  <c:v>43096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80113</c:v>
+                  <c:v>81603</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119744</c:v>
+                  <c:v>124320</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>255814</c:v>
+                  <c:v>263164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>456532</c:v>
+                  <c:v>466867</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>722913</c:v>
+                  <c:v>738063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1139876</c:v>
+                  <c:v>1159233</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2642185</c:v>
+                  <c:v>2692121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3042,7 +1796,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$136:$D$144</c:f>
+              <c:f>Sheet1!$C$84:$C$92</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3078,36 +1832,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$136:$E$144</c:f>
+              <c:f>Sheet1!$D$84:$D$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>14691</c:v>
+                  <c:v>14442</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27603</c:v>
+                  <c:v>27704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52035</c:v>
+                  <c:v>53113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78744</c:v>
+                  <c:v>82648</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>166708</c:v>
+                  <c:v>172614</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>303572</c:v>
+                  <c:v>311265</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>486670</c:v>
+                  <c:v>497390</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>783766</c:v>
+                  <c:v>796326</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1843165</c:v>
+                  <c:v>1877398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3424,7 +2178,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3502,7 +2256,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$83</c:f>
+              <c:f>Sheet1!$E$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3537,7 +2291,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$84:$D$92</c:f>
+              <c:f>Sheet1!$C$33:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3573,36 +2327,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$84:$F$92</c:f>
+              <c:f>Sheet1!$E$33:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2237.3000000000002</c:v>
+                  <c:v>2228.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2136.85</c:v>
+                  <c:v>2154.8000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1602.26</c:v>
+                  <c:v>1632.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1197.44</c:v>
+                  <c:v>1243.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1279.07</c:v>
+                  <c:v>1315.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>913.06399999999996</c:v>
+                  <c:v>933.73400000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>722.91300000000001</c:v>
+                  <c:v>738.06299999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>569.93799999999999</c:v>
+                  <c:v>579.61649999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>528.43700000000001</c:v>
+                  <c:v>538.42420000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3646,7 +2400,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$136:$D$144</c:f>
+              <c:f>Sheet1!$C$84:$C$92</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3682,36 +2436,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$136:$F$144</c:f>
+              <c:f>Sheet1!$E$84:$E$92</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1469.1</c:v>
+                  <c:v>1444.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1380.15</c:v>
+                  <c:v>1385.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1040.7</c:v>
+                  <c:v>1062.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>787.44</c:v>
+                  <c:v>826.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>833.54</c:v>
+                  <c:v>863.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>607.14400000000001</c:v>
+                  <c:v>622.53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>486.67</c:v>
+                  <c:v>497.39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>391.88299999999998</c:v>
+                  <c:v>398.16300000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>368.63299999999998</c:v>
+                  <c:v>375.4796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3979,7 +2733,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4058,7 +2812,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$83</c:f>
+              <c:f>Sheet1!$F$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4070,7 +2824,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4093,7 +2847,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$84:$D$92</c:f>
+              <c:f>Sheet1!$C$33:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4129,36 +2883,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$84:$G$92</c:f>
+              <c:f>Sheet1!$F$33:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6078</c:v>
+                  <c:v>5952</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9874</c:v>
+                  <c:v>9561</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16967</c:v>
+                  <c:v>16206</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22891</c:v>
+                  <c:v>21661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39701</c:v>
+                  <c:v>36535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65027</c:v>
+                  <c:v>59190</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96036</c:v>
+                  <c:v>87146</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>145008</c:v>
+                  <c:v>131918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>290490</c:v>
+                  <c:v>260747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4202,7 +2956,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$136:$D$144</c:f>
+              <c:f>Sheet1!$C$84:$C$92</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4238,36 +2992,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$136:$G$144</c:f>
+              <c:f>Sheet1!$F$84:$F$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5855</c:v>
+                  <c:v>4893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9623</c:v>
+                  <c:v>7530</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16699</c:v>
+                  <c:v>12936</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22620</c:v>
+                  <c:v>17742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39415</c:v>
+                  <c:v>29937</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64737</c:v>
+                  <c:v>49858</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95739</c:v>
+                  <c:v>75170</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>144710</c:v>
+                  <c:v>116809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>290192</c:v>
+                  <c:v>237036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4535,1420 +3289,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-EC"/>
-              <a:t>Total Document Lenght</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$83</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total document length</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$84:$D$92</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$84:$E$92</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>22373</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42737</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80113</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>119744</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255814</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>456532</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>722913</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1139876</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2642185</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8335-4986-8913-65E35AB6B451}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Stop words removed</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$136:$D$144</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$136:$E$144</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>14691</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27603</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52035</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>78744</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>166708</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>303572</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>486670</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>783766</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1843165</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8335-4986-8913-65E35AB6B451}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Porter's Stemmer</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$174:$D$182</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$174:$E$182</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>15211</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28491</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53627</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>81394</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>172539</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>313693</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>502432</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>807082</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1895289</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8335-4986-8913-65E35AB6B451}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1967232095"/>
-        <c:axId val="1918780511"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1967232095"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-EC"/>
-                  <a:t>Collection Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-EC"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1918780511"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1918780511"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-EC"/>
-                  <a:t>Length of all documents</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-EC"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1967232095"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:miter lim="800000"/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-EC"/>
-              <a:t>Average Document</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-EC" baseline="0"/>
-              <a:t> Length</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$83</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average document length</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$84:$D$92</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$84:$F$92</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2237.3000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2136.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1602.26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1197.44</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1279.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>913.06399999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>722.91300000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>569.93799999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>528.43700000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C78-42B3-BFDA-DD231B7EF50A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Stop words removed</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$136:$D$144</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$136:$F$144</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1469.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1380.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1040.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>787.44</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>833.54</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>607.14400000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>486.67</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>391.88299999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>368.63299999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5C78-42B3-BFDA-DD231B7EF50A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Porter's Stemmer</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$174:$D$182</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$174:$F$182</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1521.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1424.55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1072.54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>813.94</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>862.69500000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>627.38599999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>502.43200000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>403.541</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>379.05779999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5C78-42B3-BFDA-DD231B7EF50A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1916898559"/>
-        <c:axId val="1837570383"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1916898559"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-EC"/>
-                  <a:t>Collection Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-EC"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1837570383"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1837570383"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1916898559"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:miter lim="800000"/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6188,126 +3529,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6824,7 +4045,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7340,7 +4561,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7856,7 +5077,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8372,7 +5593,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8888,7 +6109,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9404,2394 +6625,19 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>51955</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>24691</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AAEC1FE-EEA2-4139-8C45-412B63F4F411}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1526598" y="8039100"/>
-          <a:ext cx="5123584" cy="748591"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>181841</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>981410</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>770</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626B481F-C518-4047-A2E9-6F17DACB32C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="1408"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1466850" y="11030816"/>
-          <a:ext cx="4181810" cy="771429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>31174</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>10392</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>17488</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>103910</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9001A5D-911D-4046-85B2-CC7A73EA5D04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7460674" y="10106892"/>
-          <a:ext cx="5354950" cy="2951018"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381866</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>365791</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>56935</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C345AA-B0D2-40CF-8C1E-4B44D9645E2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8642639" y="7667625"/>
-          <a:ext cx="3915152" cy="1723810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>675409</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>135081</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>618259</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>49356</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Arrow: Right 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97C0FA9-DEB3-4830-9CEA-0868D5F439C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7273636" y="8136081"/>
-          <a:ext cx="774123" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-EC" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>175780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>321253</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>90055</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Arrow: Right 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73785BD9-0B3A-4C4C-A943-77C971C8C32D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6147955" y="11034280"/>
-          <a:ext cx="771525" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-EC" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>425224</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>22451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>274865</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>46264</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11811,43 +6657,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58332E6-41B5-4AD8-90E5-5C44435B2673}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11857,13 +6667,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600755</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>7484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>796018</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11883,7 +6693,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11893,13 +6703,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>189818</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>181655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>155864</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>173183</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11919,7 +6729,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11929,13 +6739,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>816429</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11957,7 +6767,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11967,13 +6777,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11995,7 +6805,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12005,13 +6815,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>588819</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>17317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>294409</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>69272</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12033,124 +6843,59 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>747033</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>29279</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A210D27B-4DEE-4F17-B535-5052657577EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88CC1D4-C1E0-4897-B6BB-4D3CD073C169}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>436789</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>141885</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69F059A-4E4F-45E5-98CE-9968EFED6A9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>134215</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>71005</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482CBCCE-C0D7-412F-BECD-08EBEEF5FC32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067050" y="1285875"/>
+          <a:ext cx="5286375" cy="3124904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12456,10 +7201,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I202"/>
+  <dimension ref="B2:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12475,913 +7220,537 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="C4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="C5" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="C6" s="15" t="s">
-        <v>56</v>
+      <c r="C6" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="C7" s="7"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="C8" s="7"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="C9" s="7"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="C10" s="7"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="C11" s="7"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="C12" s="7"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="C13" s="7"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="C14" s="7"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" s="7"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+    <row r="25" spans="2:6">
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="21" spans="3:9" ht="29.25">
-      <c r="D21" s="11" t="s">
+    <row r="27" spans="2:6">
+      <c r="B27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="C29" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="C30" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="28.5">
+      <c r="C32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="5">
+        <v>10</v>
+      </c>
+      <c r="D33" s="6">
+        <v>22282</v>
+      </c>
+      <c r="E33" s="5">
+        <f>D33/C33</f>
+        <v>2228.1999999999998</v>
+      </c>
+      <c r="F33" s="6">
+        <v>5952</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="5">
+        <v>20</v>
+      </c>
+      <c r="D34" s="6">
+        <v>43096</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" ref="E34:E42" si="0">D34/C34</f>
+        <v>2154.8000000000002</v>
+      </c>
+      <c r="F34" s="6">
+        <v>9561</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="5">
+        <v>50</v>
+      </c>
+      <c r="D35" s="6">
+        <v>81603</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="0"/>
+        <v>1632.06</v>
+      </c>
+      <c r="F35" s="6">
+        <v>16206</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="5">
+        <v>100</v>
+      </c>
+      <c r="D36" s="6">
+        <v>124320</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="0"/>
+        <v>1243.2</v>
+      </c>
+      <c r="F36" s="6">
+        <v>21661</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="5">
+        <v>200</v>
+      </c>
+      <c r="D37" s="6">
+        <v>263164</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="0"/>
+        <v>1315.82</v>
+      </c>
+      <c r="F37" s="6">
+        <v>36535</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="5">
+        <v>500</v>
+      </c>
+      <c r="D38" s="6">
+        <v>466867</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="0"/>
+        <v>933.73400000000004</v>
+      </c>
+      <c r="F38" s="6">
+        <v>59190</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D39" s="6">
+        <v>738063</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="0"/>
+        <v>738.06299999999999</v>
+      </c>
+      <c r="F39" s="6">
+        <v>87146</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1159233</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="0"/>
+        <v>579.61649999999997</v>
+      </c>
+      <c r="F40" s="6">
+        <v>131918</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2692121</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="0"/>
+        <v>538.42420000000004</v>
+      </c>
+      <c r="F41" s="6">
+        <v>260747</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" s="12">
+        <v>9804</v>
+      </c>
+      <c r="D42" s="12">
+        <v>10907091</v>
+      </c>
+      <c r="E42" s="13">
+        <f t="shared" si="0"/>
+        <v>1112.5143818849449</v>
+      </c>
+      <c r="F42" s="12">
+        <v>612407</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="15.75">
+      <c r="B51" s="8"/>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="C64" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="10"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="22" spans="3:9">
-      <c r="C22" s="4" t="s">
+    <row r="83" spans="3:6" ht="28.5">
+      <c r="C83" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6">
+      <c r="C84" s="5">
+        <v>10</v>
+      </c>
+      <c r="D84" s="6">
+        <v>14442</v>
+      </c>
+      <c r="E84" s="5">
+        <f>D84/C84</f>
+        <v>1444.2</v>
+      </c>
+      <c r="F84" s="6">
+        <v>4893</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6">
+      <c r="C85" s="5">
+        <v>20</v>
+      </c>
+      <c r="D85" s="6">
+        <v>27704</v>
+      </c>
+      <c r="E85" s="5">
+        <f t="shared" ref="E85:E93" si="1">D85/C85</f>
+        <v>1385.2</v>
+      </c>
+      <c r="F85" s="6">
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6">
+      <c r="C86" s="5">
+        <v>50</v>
+      </c>
+      <c r="D86" s="6">
+        <v>53113</v>
+      </c>
+      <c r="E86" s="5">
+        <f t="shared" si="1"/>
+        <v>1062.26</v>
+      </c>
+      <c r="F86" s="6">
+        <v>12936</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6">
+      <c r="C87" s="5">
+        <v>100</v>
+      </c>
+      <c r="D87" s="6">
+        <v>82648</v>
+      </c>
+      <c r="E87" s="5">
+        <f t="shared" si="1"/>
+        <v>826.48</v>
+      </c>
+      <c r="F87" s="6">
+        <v>17742</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6">
+      <c r="C88" s="5">
+        <v>200</v>
+      </c>
+      <c r="D88" s="6">
+        <v>172614</v>
+      </c>
+      <c r="E88" s="5">
+        <f t="shared" si="1"/>
+        <v>863.07</v>
+      </c>
+      <c r="F88" s="6">
+        <v>29937</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6">
+      <c r="C89" s="5">
+        <v>500</v>
+      </c>
+      <c r="D89" s="6">
+        <v>311265</v>
+      </c>
+      <c r="E89" s="5">
+        <f t="shared" si="1"/>
+        <v>622.53</v>
+      </c>
+      <c r="F89" s="6">
+        <v>49858</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6">
+      <c r="C90" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D90" s="6">
+        <v>497390</v>
+      </c>
+      <c r="E90" s="5">
+        <f t="shared" si="1"/>
+        <v>497.39</v>
+      </c>
+      <c r="F90" s="6">
+        <v>75170</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6">
+      <c r="C91" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D91" s="6">
+        <v>796326</v>
+      </c>
+      <c r="E91" s="5">
+        <f t="shared" si="1"/>
+        <v>398.16300000000001</v>
+      </c>
+      <c r="F91" s="6">
+        <v>116809</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6">
+      <c r="C92" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D92" s="6">
+        <v>1877398</v>
+      </c>
+      <c r="E92" s="5">
+        <f t="shared" si="1"/>
+        <v>375.4796</v>
+      </c>
+      <c r="F92" s="6">
+        <v>237036</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6">
+      <c r="C93" s="12">
+        <v>9804</v>
+      </c>
+      <c r="D93" s="12"/>
+      <c r="E93" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="8">
-        <v>10</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.08</v>
-      </c>
+      <c r="F93" s="12"/>
     </row>
-    <row r="23" spans="3:9">
-      <c r="C23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8">
+    <row r="105" spans="2:3" ht="15.75">
+      <c r="B105" s="8"/>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="C112" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9">
-      <c r="C24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="8">
-        <v>50</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9">
-      <c r="C25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="8">
-        <v>100</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9">
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="8">
-        <v>200</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9">
-      <c r="C27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="8">
-        <v>500</v>
-      </c>
-      <c r="E27" s="5">
-        <v>5.72</v>
-      </c>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="3:9">
-      <c r="C28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E28" s="5">
-        <v>14.03</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9">
-      <c r="C29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E29" s="5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9">
-      <c r="C30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="E30" s="5">
-        <v>314.7</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
-      <c r="G34" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7">
-      <c r="C37" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7">
-      <c r="C38" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7">
-      <c r="C40" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3">
-      <c r="C75" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="C76" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="C77" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="C78" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="C79" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3">
-      <c r="C80" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="3:7" ht="28.5">
-      <c r="D83" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="3:7">
-      <c r="C84" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="8">
-        <v>10</v>
-      </c>
-      <c r="E84" s="10">
-        <v>22373</v>
-      </c>
-      <c r="F84" s="8">
-        <f>E84/D84</f>
-        <v>2237.3000000000002</v>
-      </c>
-      <c r="G84" s="10">
-        <v>6078</v>
-      </c>
-    </row>
-    <row r="85" spans="3:7">
-      <c r="C85" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" s="8">
-        <v>20</v>
-      </c>
-      <c r="E85" s="10">
-        <v>42737</v>
-      </c>
-      <c r="F85" s="8">
-        <f t="shared" ref="F85:F92" si="0">E85/D85</f>
-        <v>2136.85</v>
-      </c>
-      <c r="G85" s="10">
-        <v>9874</v>
-      </c>
-    </row>
-    <row r="86" spans="3:7">
-      <c r="C86" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="8">
-        <v>50</v>
-      </c>
-      <c r="E86" s="10">
-        <v>80113</v>
-      </c>
-      <c r="F86" s="8">
-        <f t="shared" si="0"/>
-        <v>1602.26</v>
-      </c>
-      <c r="G86" s="10">
-        <v>16967</v>
-      </c>
-    </row>
-    <row r="87" spans="3:7">
-      <c r="C87" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="8">
-        <v>100</v>
-      </c>
-      <c r="E87" s="10">
-        <v>119744</v>
-      </c>
-      <c r="F87" s="8">
-        <f t="shared" si="0"/>
-        <v>1197.44</v>
-      </c>
-      <c r="G87" s="10">
-        <v>22891</v>
-      </c>
-    </row>
-    <row r="88" spans="3:7">
-      <c r="C88" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="8">
-        <v>200</v>
-      </c>
-      <c r="E88" s="10">
-        <v>255814</v>
-      </c>
-      <c r="F88" s="8">
-        <f t="shared" si="0"/>
-        <v>1279.07</v>
-      </c>
-      <c r="G88" s="10">
-        <v>39701</v>
-      </c>
-    </row>
-    <row r="89" spans="3:7">
-      <c r="C89" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="8">
-        <v>500</v>
-      </c>
-      <c r="E89" s="10">
-        <v>456532</v>
-      </c>
-      <c r="F89" s="8">
-        <f t="shared" si="0"/>
-        <v>913.06399999999996</v>
-      </c>
-      <c r="G89" s="10">
-        <v>65027</v>
-      </c>
-    </row>
-    <row r="90" spans="3:7">
-      <c r="C90" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E90" s="10">
-        <v>722913</v>
-      </c>
-      <c r="F90" s="8">
-        <f t="shared" si="0"/>
-        <v>722.91300000000001</v>
-      </c>
-      <c r="G90" s="10">
-        <v>96036</v>
-      </c>
-    </row>
-    <row r="91" spans="3:7">
-      <c r="C91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E91" s="10">
-        <v>1139876</v>
-      </c>
-      <c r="F91" s="8">
-        <f t="shared" si="0"/>
-        <v>569.93799999999999</v>
-      </c>
-      <c r="G91" s="10">
-        <v>145008</v>
-      </c>
-    </row>
-    <row r="92" spans="3:7">
-      <c r="C92" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="8">
-        <v>5000</v>
-      </c>
-      <c r="E92" s="10">
-        <v>2642185</v>
-      </c>
-      <c r="F92" s="8">
-        <f t="shared" si="0"/>
-        <v>528.43700000000001</v>
-      </c>
-      <c r="G92" s="10">
-        <v>290490</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3">
-      <c r="C110" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" ht="15.75">
-      <c r="B112" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3">
-      <c r="C114" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3">
-      <c r="C115" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3">
-      <c r="C116" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3">
-      <c r="C118" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3">
-      <c r="C119" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3">
-      <c r="C120" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3">
-      <c r="C121" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3">
-      <c r="C122" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3">
-      <c r="C123" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3">
-      <c r="C124" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3">
-      <c r="C125" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3">
-      <c r="C126" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3">
-      <c r="C127" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3">
-      <c r="C128" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="129" spans="3:7">
-      <c r="C129" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="130" spans="3:7">
-      <c r="C130" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="131" spans="3:7">
-      <c r="C131" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="132" spans="3:7">
-      <c r="C132" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="135" spans="3:7" ht="28.5">
-      <c r="D135" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G135" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="3:7">
-      <c r="C136" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D136" s="8">
-        <v>10</v>
-      </c>
-      <c r="E136" s="10">
-        <v>14691</v>
-      </c>
-      <c r="F136" s="8">
-        <f>E136/D136</f>
-        <v>1469.1</v>
-      </c>
-      <c r="G136" s="10">
-        <v>5855</v>
-      </c>
-    </row>
-    <row r="137" spans="3:7">
-      <c r="C137" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137" s="8">
-        <v>20</v>
-      </c>
-      <c r="E137" s="10">
-        <v>27603</v>
-      </c>
-      <c r="F137" s="8">
-        <f t="shared" ref="F137:F144" si="1">E137/D137</f>
-        <v>1380.15</v>
-      </c>
-      <c r="G137" s="10">
-        <v>9623</v>
-      </c>
-    </row>
-    <row r="138" spans="3:7">
-      <c r="C138" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D138" s="8">
-        <v>50</v>
-      </c>
-      <c r="E138" s="10">
-        <v>52035</v>
-      </c>
-      <c r="F138" s="8">
-        <f t="shared" si="1"/>
-        <v>1040.7</v>
-      </c>
-      <c r="G138" s="10">
-        <v>16699</v>
-      </c>
-    </row>
-    <row r="139" spans="3:7">
-      <c r="C139" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="8">
-        <v>100</v>
-      </c>
-      <c r="E139" s="10">
-        <v>78744</v>
-      </c>
-      <c r="F139" s="8">
-        <f t="shared" si="1"/>
-        <v>787.44</v>
-      </c>
-      <c r="G139" s="10">
-        <v>22620</v>
-      </c>
-    </row>
-    <row r="140" spans="3:7">
-      <c r="C140" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D140" s="8">
-        <v>200</v>
-      </c>
-      <c r="E140" s="10">
-        <v>166708</v>
-      </c>
-      <c r="F140" s="8">
-        <f t="shared" si="1"/>
-        <v>833.54</v>
-      </c>
-      <c r="G140" s="10">
-        <v>39415</v>
-      </c>
-    </row>
-    <row r="141" spans="3:7">
-      <c r="C141" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141" s="8">
-        <v>500</v>
-      </c>
-      <c r="E141" s="10">
-        <v>303572</v>
-      </c>
-      <c r="F141" s="8">
-        <f t="shared" si="1"/>
-        <v>607.14400000000001</v>
-      </c>
-      <c r="G141" s="10">
-        <v>64737</v>
-      </c>
-    </row>
-    <row r="142" spans="3:7">
-      <c r="C142" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D142" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E142" s="10">
-        <v>486670</v>
-      </c>
-      <c r="F142" s="8">
-        <f t="shared" si="1"/>
-        <v>486.67</v>
-      </c>
-      <c r="G142" s="10">
-        <v>95739</v>
-      </c>
-    </row>
-    <row r="143" spans="3:7">
-      <c r="C143" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D143" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E143" s="10">
-        <v>783766</v>
-      </c>
-      <c r="F143" s="8">
-        <f t="shared" si="1"/>
-        <v>391.88299999999998</v>
-      </c>
-      <c r="G143" s="10">
-        <v>144710</v>
-      </c>
-    </row>
-    <row r="144" spans="3:7">
-      <c r="C144" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="8">
-        <v>5000</v>
-      </c>
-      <c r="E144" s="10">
-        <v>1843165</v>
-      </c>
-      <c r="F144" s="8">
-        <f t="shared" si="1"/>
-        <v>368.63299999999998</v>
-      </c>
-      <c r="G144" s="10">
-        <v>290192</v>
-      </c>
-    </row>
-    <row r="164" spans="2:7">
-      <c r="C164" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="167" spans="2:7" ht="15.75">
-      <c r="B167" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="169" spans="2:7">
-      <c r="C169" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="170" spans="2:7">
-      <c r="C170" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="171" spans="2:7">
-      <c r="C171" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7" ht="28.5">
-      <c r="D173" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E173" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F173" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="174" spans="2:7">
-      <c r="C174" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D174" s="8">
-        <v>10</v>
-      </c>
-      <c r="E174" s="10">
-        <v>15211</v>
-      </c>
-      <c r="F174" s="8">
-        <f>E174/D174</f>
-        <v>1521.1</v>
-      </c>
-      <c r="G174" s="10">
-        <v>5043</v>
-      </c>
-    </row>
-    <row r="175" spans="2:7">
-      <c r="C175" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D175" s="8">
-        <v>20</v>
-      </c>
-      <c r="E175" s="10">
-        <v>28491</v>
-      </c>
-      <c r="F175" s="8">
-        <f t="shared" ref="F175:F182" si="2">E175/D175</f>
-        <v>1424.55</v>
-      </c>
-      <c r="G175" s="10">
-        <v>7863</v>
-      </c>
-    </row>
-    <row r="176" spans="2:7">
-      <c r="C176" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D176" s="8">
-        <v>50</v>
-      </c>
-      <c r="E176" s="10">
-        <v>53627</v>
-      </c>
-      <c r="F176" s="8">
-        <f t="shared" si="2"/>
-        <v>1072.54</v>
-      </c>
-      <c r="G176" s="10">
-        <v>13692</v>
-      </c>
-    </row>
-    <row r="177" spans="3:7">
-      <c r="C177" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D177" s="8">
-        <v>100</v>
-      </c>
-      <c r="E177" s="10">
-        <v>81394</v>
-      </c>
-      <c r="F177" s="8">
-        <f t="shared" si="2"/>
-        <v>813.94</v>
-      </c>
-      <c r="G177" s="10">
-        <v>18945</v>
-      </c>
-    </row>
-    <row r="178" spans="3:7">
-      <c r="C178" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D178" s="8">
-        <v>200</v>
-      </c>
-      <c r="E178" s="10">
-        <v>172539</v>
-      </c>
-      <c r="F178" s="8">
-        <f t="shared" si="2"/>
-        <v>862.69500000000005</v>
-      </c>
-      <c r="G178" s="10">
-        <v>32905</v>
-      </c>
-    </row>
-    <row r="179" spans="3:7">
-      <c r="C179" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D179" s="8">
-        <v>500</v>
-      </c>
-      <c r="E179" s="10">
-        <v>313693</v>
-      </c>
-      <c r="F179" s="8">
-        <f t="shared" si="2"/>
-        <v>627.38599999999997</v>
-      </c>
-      <c r="G179" s="10">
-        <v>55288</v>
-      </c>
-    </row>
-    <row r="180" spans="3:7">
-      <c r="C180" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D180" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E180" s="10">
-        <v>502432</v>
-      </c>
-      <c r="F180" s="8">
-        <f t="shared" si="2"/>
-        <v>502.43200000000002</v>
-      </c>
-      <c r="G180" s="10">
-        <v>83290</v>
-      </c>
-    </row>
-    <row r="181" spans="3:7">
-      <c r="C181" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D181" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E181" s="10">
-        <v>807082</v>
-      </c>
-      <c r="F181" s="8">
-        <f t="shared" si="2"/>
-        <v>403.541</v>
-      </c>
-      <c r="G181" s="10">
-        <v>128745</v>
-      </c>
-    </row>
-    <row r="182" spans="3:7">
-      <c r="C182" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="8">
-        <v>5000</v>
-      </c>
-      <c r="E182" s="10">
-        <v>1895289</v>
-      </c>
-      <c r="F182" s="8">
-        <f t="shared" si="2"/>
-        <v>379.05779999999999</v>
-      </c>
-      <c r="G182" s="10">
-        <v>264620</v>
-      </c>
-    </row>
-    <row r="202" spans="3:3">
-      <c r="C202" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/information_recovery/practice3/Practice_03_IR_indexing_weighting.xlsx
+++ b/information_recovery/practice3/Practice_03_IR_indexing_weighting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Python\olmedo-vinueza-alexander-daniel\information_recovery\practice3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5557D1D7-BC1D-40DD-8DB2-6F071F699264}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A89EBE-3519-4213-BFA8-F9A2174E41B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Exercise 2: Collection Statistics</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t xml:space="preserve"> "yours", "yourself", "yourselves", "the")</t>
-  </si>
-  <si>
-    <t>After removing the stop words the total document length decreases, but it almost doesn't affect the vocabulary size. It remains pretty much the same.</t>
   </si>
   <si>
     <t>Exercise 1: Increasing (again) the size of the collection</t>
@@ -189,12 +186,283 @@
   <si>
     <t>Compute again the statistics of the exercise n°2.</t>
   </si>
+  <si>
+    <t>After removing the stop words and aplying a stemmer the total document length decreases significantly, but the vocabulary size decreases only a bit, the same as Practical exercise 2.</t>
+  </si>
+  <si>
+    <t>Exercise 4: SMART ltn weighting</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compute a weighted index based on SMART </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-ItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">ltn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t>weighting function.</t>
+    </r>
+  </si>
+  <si>
+    <t>Compute the score of each document for the query « web ranking scoring algorithm », using the index based</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">on SMART </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-ItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">ltn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t>weighting function. Print the list of the ten most relevant documents, and their relevance score.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compute a weighted index based on SMART </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-ItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">ltc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t>weighting function.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">on SMART </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-ItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">ltc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t>weighting function. Print the list of the ten most relevant documents, and their relevance score.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compute a weighted index based on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-ItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">BM25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t>weighting function.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-ItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">BM25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t>weighting function. Print the list of the ten most relevant documents, and their relevance score.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Exercise 5: Ranked Retrieval (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">ltn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>weighting)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exercise 6: SMART </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">ltc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>weighting</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Exercise 7: Ranked Retrieval (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">ltc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>weighting)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exercise 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">BM25 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>weighting</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Exercise 9: Ranked Retrieval (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">BM25 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>weighting)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +538,32 @@
       <color rgb="FF000000"/>
       <name val="TimesNewRomanPS-BoldMT"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPS-ItalicMT"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPS-BoldMT"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPS-BoldItalicMT"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -312,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -330,6 +624,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,34 +774,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>22282</c:v>
+                  <c:v>23546</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43096</c:v>
+                  <c:v>43858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81603</c:v>
+                  <c:v>81268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124320</c:v>
+                  <c:v>119691</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>263164</c:v>
+                  <c:v>255027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>466867</c:v>
+                  <c:v>456288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>738063</c:v>
+                  <c:v>722259</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1159233</c:v>
+                  <c:v>1132287</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2692121</c:v>
+                  <c:v>2618341</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10907091</c:v>
+                  <c:v>10887220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -922,31 +1218,31 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2154.8000000000002</c:v>
+                  <c:v>2192.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1632.06</c:v>
+                  <c:v>1625.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1243.2</c:v>
+                  <c:v>1196.9100000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1315.82</c:v>
+                  <c:v>1275.135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>933.73400000000004</c:v>
+                  <c:v>912.57600000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>738.06299999999999</c:v>
+                  <c:v>722.25900000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>579.61649999999997</c:v>
+                  <c:v>566.14350000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>538.42420000000004</c:v>
+                  <c:v>523.66819999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1112.5143818849449</c:v>
+                  <c:v>1110.4875560995513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1314,31 +1610,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9561</c:v>
+                  <c:v>8246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16206</c:v>
+                  <c:v>13359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21661</c:v>
+                  <c:v>16746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36535</c:v>
+                  <c:v>27437</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59190</c:v>
+                  <c:v>42649</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87146</c:v>
+                  <c:v>60406</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131918</c:v>
+                  <c:v>83406</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>260747</c:v>
+                  <c:v>149300</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>612407</c:v>
+                  <c:v>211036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1651,15 +1947,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total document length</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>No stop words and stemmer</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1687,10 +1975,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$33:$C$41</c:f>
+              <c:f>Sheet1!$C$33:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1717,42 +2005,48 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>9804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$33:$D$41</c:f>
+              <c:f>Sheet1!$D$33:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>22282</c:v>
+                  <c:v>23546</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43096</c:v>
+                  <c:v>43858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81603</c:v>
+                  <c:v>81268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124320</c:v>
+                  <c:v>119691</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>263164</c:v>
+                  <c:v>255027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>466867</c:v>
+                  <c:v>456288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>738063</c:v>
+                  <c:v>722259</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1159233</c:v>
+                  <c:v>1132287</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2692121</c:v>
+                  <c:v>2618341</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10887220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1768,7 +2062,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Stop words removed</c:v>
+            <c:v>Stop words and stemmer</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1796,10 +2090,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$84:$C$92</c:f>
+              <c:f>Sheet1!$C$84:$C$93</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1826,42 +2120,48 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>9804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$84:$D$92</c:f>
+              <c:f>Sheet1!$D$84:$D$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14442</c:v>
+                  <c:v>14886</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27704</c:v>
+                  <c:v>26972</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53113</c:v>
+                  <c:v>50439</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82648</c:v>
+                  <c:v>74896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>172614</c:v>
+                  <c:v>158149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>311265</c:v>
+                  <c:v>289186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>497390</c:v>
+                  <c:v>463405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>796326</c:v>
+                  <c:v>741069</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1877398</c:v>
+                  <c:v>1739619</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6986827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2255,15 +2555,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average document length</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>No stop words and stemmer</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2291,10 +2583,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$33:$C$41</c:f>
+              <c:f>Sheet1!$C$33:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2321,42 +2613,48 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>9804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$33:$E$41</c:f>
+              <c:f>Sheet1!$E$33:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2228.1999999999998</c:v>
+                  <c:v>2354.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2154.8000000000002</c:v>
+                  <c:v>2192.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1632.06</c:v>
+                  <c:v>1625.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1243.2</c:v>
+                  <c:v>1196.9100000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1315.82</c:v>
+                  <c:v>1275.135</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>933.73400000000004</c:v>
+                  <c:v>912.57600000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>738.06299999999999</c:v>
+                  <c:v>722.25900000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>579.61649999999997</c:v>
+                  <c:v>566.14350000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>538.42420000000004</c:v>
+                  <c:v>523.66819999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1110.4875560995513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2372,7 +2670,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Stop words removed</c:v>
+            <c:v>Stop words and stemmer</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2400,10 +2698,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$84:$C$92</c:f>
+              <c:f>Sheet1!$C$84:$C$93</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2430,42 +2728,48 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>9804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$84:$E$92</c:f>
+              <c:f>Sheet1!$E$84:$E$93</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1444.2</c:v>
+                  <c:v>1488.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1385.2</c:v>
+                  <c:v>1348.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1062.26</c:v>
+                  <c:v>1008.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>826.48</c:v>
+                  <c:v>748.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>863.07</c:v>
+                  <c:v>790.745</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>622.53</c:v>
+                  <c:v>578.37199999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>497.39</c:v>
+                  <c:v>463.40499999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>398.16300000000001</c:v>
+                  <c:v>370.53449999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>375.4796</c:v>
+                  <c:v>347.92380000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>712.65065279477767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2847,10 +3151,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$33:$C$41</c:f>
+              <c:f>Sheet1!$C$33:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2877,42 +3181,48 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>9804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$33:$F$41</c:f>
+              <c:f>Sheet1!$F$33:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5952</c:v>
+                  <c:v>5301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9561</c:v>
+                  <c:v>8246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16206</c:v>
+                  <c:v>13359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21661</c:v>
+                  <c:v>16746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36535</c:v>
+                  <c:v>27437</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59190</c:v>
+                  <c:v>42649</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87146</c:v>
+                  <c:v>60406</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131918</c:v>
+                  <c:v>83406</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>260747</c:v>
+                  <c:v>149300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>211036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2956,10 +3266,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$84:$C$92</c:f>
+              <c:f>Sheet1!$C$84:$C$93</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2986,42 +3296,48 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>9804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$84:$F$92</c:f>
+              <c:f>Sheet1!$F$84:$F$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4893</c:v>
+                  <c:v>4175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7530</c:v>
+                  <c:v>6139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12936</c:v>
+                  <c:v>9977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17742</c:v>
+                  <c:v>12710</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29937</c:v>
+                  <c:v>20680</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49858</c:v>
+                  <c:v>33027</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75170</c:v>
+                  <c:v>48035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>116809</c:v>
+                  <c:v>67809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>237036</c:v>
+                  <c:v>124979</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>172344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6737,16 +7053,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>364672</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>6805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>816429</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6775,16 +7091,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>258536</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>420461</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:rowOff>2722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
+      <xdr:rowOff>135082</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6813,16 +7129,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>588819</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>55419</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>17317</xdr:rowOff>
+      <xdr:rowOff>7792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>294409</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>69272</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6851,23 +7167,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>29279</xdr:rowOff>
+      <xdr:rowOff>86416</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88CC1D4-C1E0-4897-B6BB-4D3CD073C169}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BB2446-5E28-4DE8-ABD5-30E1D64FBA5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6883,8 +7199,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3067050" y="1285875"/>
-          <a:ext cx="5286375" cy="3124904"/>
+          <a:off x="2143125" y="1304926"/>
+          <a:ext cx="5362575" cy="3162990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7201,10 +7517,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F112"/>
+  <dimension ref="B2:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S89" sqref="S89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7220,26 +7536,26 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5">
       <c r="C5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5">
       <c r="C6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4"/>
@@ -7296,7 +7612,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -7312,12 +7628,12 @@
     </row>
     <row r="29" spans="2:6">
       <c r="C29" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="C30" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="28.5">
@@ -7339,14 +7655,14 @@
         <v>10</v>
       </c>
       <c r="D33" s="6">
-        <v>22282</v>
+        <v>23546</v>
       </c>
       <c r="E33" s="5">
         <f>D33/C33</f>
-        <v>2228.1999999999998</v>
+        <v>2354.6</v>
       </c>
       <c r="F33" s="6">
-        <v>5952</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="34" spans="3:6">
@@ -7354,14 +7670,14 @@
         <v>20</v>
       </c>
       <c r="D34" s="6">
-        <v>43096</v>
+        <v>43858</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" ref="E34:E42" si="0">D34/C34</f>
-        <v>2154.8000000000002</v>
+        <v>2192.9</v>
       </c>
       <c r="F34" s="6">
-        <v>9561</v>
+        <v>8246</v>
       </c>
     </row>
     <row r="35" spans="3:6">
@@ -7369,14 +7685,14 @@
         <v>50</v>
       </c>
       <c r="D35" s="6">
-        <v>81603</v>
+        <v>81268</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="0"/>
-        <v>1632.06</v>
+        <v>1625.36</v>
       </c>
       <c r="F35" s="6">
-        <v>16206</v>
+        <v>13359</v>
       </c>
     </row>
     <row r="36" spans="3:6">
@@ -7384,14 +7700,14 @@
         <v>100</v>
       </c>
       <c r="D36" s="6">
-        <v>124320</v>
+        <v>119691</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="0"/>
-        <v>1243.2</v>
+        <v>1196.9100000000001</v>
       </c>
       <c r="F36" s="6">
-        <v>21661</v>
+        <v>16746</v>
       </c>
     </row>
     <row r="37" spans="3:6">
@@ -7399,14 +7715,14 @@
         <v>200</v>
       </c>
       <c r="D37" s="6">
-        <v>263164</v>
+        <v>255027</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="0"/>
-        <v>1315.82</v>
+        <v>1275.135</v>
       </c>
       <c r="F37" s="6">
-        <v>36535</v>
+        <v>27437</v>
       </c>
     </row>
     <row r="38" spans="3:6">
@@ -7414,14 +7730,14 @@
         <v>500</v>
       </c>
       <c r="D38" s="6">
-        <v>466867</v>
+        <v>456288</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="0"/>
-        <v>933.73400000000004</v>
+        <v>912.57600000000002</v>
       </c>
       <c r="F38" s="6">
-        <v>59190</v>
+        <v>42649</v>
       </c>
     </row>
     <row r="39" spans="3:6">
@@ -7429,14 +7745,14 @@
         <v>1000</v>
       </c>
       <c r="D39" s="6">
-        <v>738063</v>
+        <v>722259</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="0"/>
-        <v>738.06299999999999</v>
+        <v>722.25900000000001</v>
       </c>
       <c r="F39" s="6">
-        <v>87146</v>
+        <v>60406</v>
       </c>
     </row>
     <row r="40" spans="3:6">
@@ -7444,14 +7760,14 @@
         <v>2000</v>
       </c>
       <c r="D40" s="6">
-        <v>1159233</v>
+        <v>1132287</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="0"/>
-        <v>579.61649999999997</v>
+        <v>566.14350000000002</v>
       </c>
       <c r="F40" s="6">
-        <v>131918</v>
+        <v>83406</v>
       </c>
     </row>
     <row r="41" spans="3:6">
@@ -7459,14 +7775,14 @@
         <v>5000</v>
       </c>
       <c r="D41" s="6">
-        <v>2692121</v>
+        <v>2618341</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="0"/>
-        <v>538.42420000000004</v>
+        <v>523.66819999999996</v>
       </c>
       <c r="F41" s="6">
-        <v>260747</v>
+        <v>149300</v>
       </c>
     </row>
     <row r="42" spans="3:6">
@@ -7474,14 +7790,14 @@
         <v>9804</v>
       </c>
       <c r="D42" s="12">
-        <v>10907091</v>
+        <v>10887220</v>
       </c>
       <c r="E42" s="13">
         <f t="shared" si="0"/>
-        <v>1112.5143818849449</v>
+        <v>1110.4875560995513</v>
       </c>
       <c r="F42" s="12">
-        <v>612407</v>
+        <v>211036</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="15.75">
@@ -7489,22 +7805,22 @@
     </row>
     <row r="59" spans="2:3">
       <c r="C59" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="C63" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="C64" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="3:3">
@@ -7604,14 +7920,14 @@
         <v>10</v>
       </c>
       <c r="D84" s="6">
-        <v>14442</v>
+        <v>14886</v>
       </c>
       <c r="E84" s="5">
         <f>D84/C84</f>
-        <v>1444.2</v>
+        <v>1488.6</v>
       </c>
       <c r="F84" s="6">
-        <v>4893</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="85" spans="3:6">
@@ -7619,14 +7935,14 @@
         <v>20</v>
       </c>
       <c r="D85" s="6">
-        <v>27704</v>
+        <v>26972</v>
       </c>
       <c r="E85" s="5">
         <f t="shared" ref="E85:E93" si="1">D85/C85</f>
-        <v>1385.2</v>
+        <v>1348.6</v>
       </c>
       <c r="F85" s="6">
-        <v>7530</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="86" spans="3:6">
@@ -7634,14 +7950,14 @@
         <v>50</v>
       </c>
       <c r="D86" s="6">
-        <v>53113</v>
+        <v>50439</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" si="1"/>
-        <v>1062.26</v>
+        <v>1008.78</v>
       </c>
       <c r="F86" s="6">
-        <v>12936</v>
+        <v>9977</v>
       </c>
     </row>
     <row r="87" spans="3:6">
@@ -7649,14 +7965,14 @@
         <v>100</v>
       </c>
       <c r="D87" s="6">
-        <v>82648</v>
+        <v>74896</v>
       </c>
       <c r="E87" s="5">
         <f t="shared" si="1"/>
-        <v>826.48</v>
+        <v>748.96</v>
       </c>
       <c r="F87" s="6">
-        <v>17742</v>
+        <v>12710</v>
       </c>
     </row>
     <row r="88" spans="3:6">
@@ -7664,14 +7980,14 @@
         <v>200</v>
       </c>
       <c r="D88" s="6">
-        <v>172614</v>
+        <v>158149</v>
       </c>
       <c r="E88" s="5">
         <f t="shared" si="1"/>
-        <v>863.07</v>
+        <v>790.745</v>
       </c>
       <c r="F88" s="6">
-        <v>29937</v>
+        <v>20680</v>
       </c>
     </row>
     <row r="89" spans="3:6">
@@ -7679,14 +7995,14 @@
         <v>500</v>
       </c>
       <c r="D89" s="6">
-        <v>311265</v>
+        <v>289186</v>
       </c>
       <c r="E89" s="5">
         <f t="shared" si="1"/>
-        <v>622.53</v>
+        <v>578.37199999999996</v>
       </c>
       <c r="F89" s="6">
-        <v>49858</v>
+        <v>33027</v>
       </c>
     </row>
     <row r="90" spans="3:6">
@@ -7694,14 +8010,14 @@
         <v>1000</v>
       </c>
       <c r="D90" s="6">
-        <v>497390</v>
+        <v>463405</v>
       </c>
       <c r="E90" s="5">
         <f t="shared" si="1"/>
-        <v>497.39</v>
+        <v>463.40499999999997</v>
       </c>
       <c r="F90" s="6">
-        <v>75170</v>
+        <v>48035</v>
       </c>
     </row>
     <row r="91" spans="3:6">
@@ -7709,14 +8025,14 @@
         <v>2000</v>
       </c>
       <c r="D91" s="6">
-        <v>796326</v>
+        <v>741069</v>
       </c>
       <c r="E91" s="5">
         <f t="shared" si="1"/>
-        <v>398.16300000000001</v>
+        <v>370.53449999999998</v>
       </c>
       <c r="F91" s="6">
-        <v>116809</v>
+        <v>67809</v>
       </c>
     </row>
     <row r="92" spans="3:6">
@@ -7724,33 +8040,112 @@
         <v>5000</v>
       </c>
       <c r="D92" s="6">
-        <v>1877398</v>
+        <v>1739619</v>
       </c>
       <c r="E92" s="5">
         <f t="shared" si="1"/>
-        <v>375.4796</v>
+        <v>347.92380000000003</v>
       </c>
       <c r="F92" s="6">
-        <v>237036</v>
+        <v>124979</v>
       </c>
     </row>
     <row r="93" spans="3:6">
       <c r="C93" s="12">
         <v>9804</v>
       </c>
-      <c r="D93" s="12"/>
+      <c r="D93" s="12">
+        <v>6986827</v>
+      </c>
       <c r="E93" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F93" s="12"/>
+        <v>712.65065279477767</v>
+      </c>
+      <c r="F93" s="12">
+        <v>172344</v>
+      </c>
     </row>
     <row r="105" spans="2:3" ht="15.75">
       <c r="B105" s="8"/>
     </row>
     <row r="112" spans="2:3">
       <c r="C112" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="C116" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" ht="15.75">
+      <c r="B118" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="C120" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="C121" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" ht="15.75">
+      <c r="B123" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="C125" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" ht="15.75">
+      <c r="B127" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="C129" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="C130" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="15.75">
+      <c r="B132" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="C134" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="15.75">
+      <c r="B136" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="C138" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="C139" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/information_recovery/practice3/Practice_03_IR_indexing_weighting.xlsx
+++ b/information_recovery/practice3/Practice_03_IR_indexing_weighting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Python\olmedo-vinueza-alexander-daniel\information_recovery\practice3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A89EBE-3519-4213-BFA8-F9A2174E41B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1210AE05-C4B9-46CF-BF67-A0BEC7CD030C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
   </bookViews>
@@ -3115,15 +3115,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Vocabulary size</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>No stop words and stemmer</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -7018,15 +7010,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>189818</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>181655</xdr:rowOff>
+      <xdr:colOff>332693</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>155864</xdr:colOff>
+      <xdr:colOff>298739</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>173183</xdr:rowOff>
+      <xdr:rowOff>182708</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7092,13 +7084,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>420461</xdr:colOff>
+      <xdr:colOff>506186</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>2722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>135082</xdr:rowOff>
     </xdr:to>
@@ -7130,15 +7122,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>55419</xdr:colOff>
+      <xdr:colOff>293544</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>7792</xdr:rowOff>
+      <xdr:rowOff>17317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7519,8 +7511,8 @@
   </sheetPr>
   <dimension ref="B2:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S89" sqref="S89"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/information_recovery/practice3/Practice_03_IR_indexing_weighting.xlsx
+++ b/information_recovery/practice3/Practice_03_IR_indexing_weighting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Python\olmedo-vinueza-alexander-daniel\information_recovery\practice3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1210AE05-C4B9-46CF-BF67-A0BEC7CD030C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09715557-18F1-4D8C-8E5B-0547346D958E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Exercise 2: Collection Statistics</t>
   </si>
@@ -457,6 +457,12 @@
       <t>weighting)</t>
     </r>
   </si>
+  <si>
+    <t>On the previous exercises a dictionary containing the index was computed, serialized, and stored in disc.</t>
+  </si>
+  <si>
+    <t>This index is now loaded in memory to compute a weighted index based on SMART ltn function, the result is as it follows:</t>
+  </si>
 </sst>
 </file>
 
@@ -1947,7 +1953,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>No stop words and stemmer</c:v>
+            <c:v>No stop words or stemmer</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2555,7 +2561,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>No stop words and stemmer</c:v>
+            <c:v>No stop words or stemmer</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3115,7 +3121,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>No stop words and stemmer</c:v>
+            <c:v>No stop words or stemmer</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -7206,6 +7212,104 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>84699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729A6341-D3F2-46F7-BC02-71BB8015361E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="22669501"/>
+          <a:ext cx="6753225" cy="2351648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>160036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E609E6-7A3A-4F07-B450-E362EA604B3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609851" y="25917525"/>
+          <a:ext cx="5867400" cy="3369961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7509,10 +7613,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F139"/>
+  <dimension ref="B2:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M88" sqref="M88"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J162" sqref="J162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8075,68 +8179,78 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="2:3" ht="15.75">
-      <c r="B118" s="16" t="s">
+    <row r="132" spans="4:4">
+      <c r="D132" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" ht="15.75">
+      <c r="B154" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="2:3">
-      <c r="C120" s="15" t="s">
+    <row r="156" spans="2:3">
+      <c r="C156" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="2:3">
-      <c r="C121" s="15" t="s">
+    <row r="157" spans="2:3">
+      <c r="C157" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="2:3" ht="15.75">
-      <c r="B123" s="16" t="s">
+    <row r="173" spans="2:3" ht="15.75">
+      <c r="B173" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="2:3">
-      <c r="C125" s="15" t="s">
+    <row r="175" spans="2:3">
+      <c r="C175" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="2:3" ht="15.75">
-      <c r="B127" s="16" t="s">
+    <row r="177" spans="2:3" ht="15.75">
+      <c r="B177" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
-      <c r="C129" s="15" t="s">
+    <row r="179" spans="2:3">
+      <c r="C179" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
-      <c r="C130" s="15" t="s">
+    <row r="180" spans="2:3">
+      <c r="C180" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="2:3" ht="15.75">
-      <c r="B132" s="16" t="s">
+    <row r="182" spans="2:3" ht="15.75">
+      <c r="B182" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="2:3">
-      <c r="C134" s="15" t="s">
+    <row r="184" spans="2:3">
+      <c r="C184" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="136" spans="2:3" ht="15.75">
-      <c r="B136" s="16" t="s">
+    <row r="186" spans="2:3" ht="15.75">
+      <c r="B186" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
-      <c r="C138" s="15" t="s">
+    <row r="188" spans="2:3">
+      <c r="C188" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="2:3">
-      <c r="C139" s="15" t="s">
+    <row r="189" spans="2:3">
+      <c r="C189" s="15" t="s">
         <v>39</v>
       </c>
     </row>

--- a/information_recovery/practice3/Practice_03_IR_indexing_weighting.xlsx
+++ b/information_recovery/practice3/Practice_03_IR_indexing_weighting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Python\olmedo-vinueza-alexander-daniel\information_recovery\practice3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09715557-18F1-4D8C-8E5B-0547346D958E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FF53D4-2DE2-43F2-8AD6-385BDBA051B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Exercise 2: Collection Statistics</t>
   </si>
@@ -193,51 +193,7 @@
     <t>Exercise 4: SMART ltn weighting</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Compute a weighted index based on SMART </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPS-ItalicMT"/>
-      </rPr>
-      <t xml:space="preserve">ltn </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPSMT"/>
-      </rPr>
-      <t>weighting function.</t>
-    </r>
-  </si>
-  <si>
     <t>Compute the score of each document for the query « web ranking scoring algorithm », using the index based</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">on SMART </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPS-ItalicMT"/>
-      </rPr>
-      <t xml:space="preserve">ltn </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPSMT"/>
-      </rPr>
-      <t>weighting function. Print the list of the ten most relevant documents, and their relevance score.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -463,6 +419,66 @@
   <si>
     <t>This index is now loaded in memory to compute a weighted index based on SMART ltn function, the result is as it follows:</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compute a weighted index based on SMART </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-ItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">ltn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t>weighting function.</t>
+    </r>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">on SMART </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-ItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">ltn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t>weighting function. Print the list of the ten most relevant documents, and their relevance score.</t>
+    </r>
+  </si>
+  <si>
+    <t>Document ID</t>
+  </si>
+  <si>
+    <t>Relevance Score</t>
+  </si>
+  <si>
+    <t>10 Most Relevant Documents</t>
+  </si>
 </sst>
 </file>
 
@@ -612,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -632,6 +648,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7215,15 +7232,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>84699</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>132324</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7246,7 +7263,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2133600" y="22669501"/>
+          <a:off x="1704975" y="22907626"/>
           <a:ext cx="6753225" cy="2351648"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7263,16 +7280,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>160036</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>55261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7295,8 +7312,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2609851" y="25917525"/>
+          <a:off x="2085976" y="26003250"/>
           <a:ext cx="5867400" cy="3369961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>41131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30B42AA-7469-4557-8ACF-785FF01DCC91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="30841950"/>
+          <a:ext cx="5991225" cy="3860656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7613,10 +7679,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F189"/>
+  <dimension ref="B2:F222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J162" sqref="J162"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L196" sqref="L196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8175,83 +8241,186 @@
       </c>
     </row>
     <row r="116" spans="2:3">
-      <c r="C116" s="15" t="s">
+      <c r="C116" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="C118" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" ht="15.75">
+      <c r="B155" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="C157" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="4:4">
-      <c r="D132" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="133" spans="4:4">
-      <c r="D133" s="2" t="s">
+    <row r="158" spans="2:3">
+      <c r="C158" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="C160" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="2:3" ht="15.75">
-      <c r="B154" s="16" t="s">
+    <row r="182" spans="3:6">
+      <c r="C182" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="184" spans="3:6">
+      <c r="E184" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F184" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="185" spans="3:6">
+      <c r="E185" s="6">
+        <v>23724</v>
+      </c>
+      <c r="F185" s="6">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="186" spans="3:6">
+      <c r="E186" s="6">
+        <v>1482394</v>
+      </c>
+      <c r="F186" s="6">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="187" spans="3:6">
+      <c r="E187" s="6">
+        <v>70421</v>
+      </c>
+      <c r="F187" s="6">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="188" spans="3:6">
+      <c r="E188" s="6">
+        <v>448834</v>
+      </c>
+      <c r="F188" s="6">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="189" spans="3:6">
+      <c r="E189" s="6">
+        <v>12431</v>
+      </c>
+      <c r="F189" s="6">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="190" spans="3:6">
+      <c r="E190" s="6">
+        <v>1009996</v>
+      </c>
+      <c r="F190" s="6">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="191" spans="3:6">
+      <c r="E191" s="6">
+        <v>462448</v>
+      </c>
+      <c r="F191" s="6">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="192" spans="3:6">
+      <c r="E192" s="6">
+        <v>191457</v>
+      </c>
+      <c r="F192" s="6">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6">
+      <c r="E193" s="6">
+        <v>207747</v>
+      </c>
+      <c r="F193" s="6">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6">
+      <c r="E194" s="6">
+        <v>47293</v>
+      </c>
+      <c r="F194" s="6">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" ht="15.75">
+      <c r="B196" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6">
+      <c r="C198" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" ht="15.75">
+      <c r="B210" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="2:3">
-      <c r="C156" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3">
-      <c r="C157" s="15" t="s">
+    <row r="212" spans="2:3">
+      <c r="C212" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="C213" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="173" spans="2:3" ht="15.75">
-      <c r="B173" s="16" t="s">
+    <row r="215" spans="2:3" ht="15.75">
+      <c r="B215" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="2:3">
-      <c r="C175" s="15" t="s">
+    <row r="217" spans="2:3">
+      <c r="C217" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="2:3" ht="15.75">
-      <c r="B177" s="16" t="s">
+    <row r="219" spans="2:3" ht="15.75">
+      <c r="B219" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="2:3">
-      <c r="C179" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3">
-      <c r="C180" s="15" t="s">
+    <row r="221" spans="2:3">
+      <c r="C221" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3">
+      <c r="C222" s="15" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" ht="15.75">
-      <c r="B182" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3">
-      <c r="C184" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3" ht="15.75">
-      <c r="B186" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3">
-      <c r="C188" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3">
-      <c r="C189" s="15" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/information_recovery/practice3/Practice_03_IR_indexing_weighting.xlsx
+++ b/information_recovery/practice3/Practice_03_IR_indexing_weighting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Python\olmedo-vinueza-alexander-daniel\information_recovery\practice3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FF53D4-2DE2-43F2-8AD6-385BDBA051B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F20BF59-2025-4A6C-AED0-8C6E20144788}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
+    <workbookView xWindow="17355" yWindow="6330" windowWidth="21600" windowHeight="11385" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Exercise 2: Collection Statistics</t>
   </si>
@@ -194,28 +194,6 @@
   </si>
   <si>
     <t>Compute the score of each document for the query « web ranking scoring algorithm », using the index based</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Compute a weighted index based on SMART </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPS-ItalicMT"/>
-      </rPr>
-      <t xml:space="preserve">ltc </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPSMT"/>
-      </rPr>
-      <t>weighting function.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -478,6 +456,39 @@
   </si>
   <si>
     <t>10 Most Relevant Documents</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compute a weighted index based on SMART </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-ItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">ltc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t>weighting function.</t>
+    </r>
+  </si>
+  <si>
+    <t>The index that was computed in Excersice 4 is read into memory and normalized. The result is as follows:</t>
+  </si>
+  <si>
+    <t>Code: The code is the same as Exercise 5, but using the ltc index as input</t>
+  </si>
+  <si>
+    <t>Result:</t>
   </si>
 </sst>
 </file>
@@ -7330,15 +7341,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>840921</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>112939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>41131</xdr:rowOff>
+      <xdr:colOff>612321</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>163595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7361,8 +7372,105 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="30841950"/>
-          <a:ext cx="5991225" cy="3860656"/>
+          <a:off x="2065564" y="30797046"/>
+          <a:ext cx="6003471" cy="3860656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>19956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084E3899-CBB8-4EE1-9352-6B58B107EB89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="38569446"/>
+          <a:ext cx="5702754" cy="3932010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>579804</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{145D9686-4712-44F6-950E-B46BA066C459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:srcRect t="941"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="43072050"/>
+          <a:ext cx="6952029" cy="3009900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7679,10 +7787,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F222"/>
+  <dimension ref="B2:R276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L196" sqref="L196"/>
+    <sheetView tabSelected="1" topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I266" sqref="I266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8242,27 +8350,27 @@
     </row>
     <row r="116" spans="2:3">
       <c r="C116" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="2:3">
       <c r="C118" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="3:3">
       <c r="C133" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="155" spans="2:3" ht="15.75">
       <c r="B155" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="157" spans="2:3">
@@ -8272,25 +8380,25 @@
     </row>
     <row r="158" spans="2:3">
       <c r="C158" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="2:3">
       <c r="C160" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="182" spans="3:6">
       <c r="C182" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="184" spans="3:6">
       <c r="E184" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F184" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="F184" s="17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="185" spans="3:6">
@@ -8357,7 +8465,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="193" spans="2:6">
+    <row r="193" spans="2:18">
       <c r="E193" s="6">
         <v>207747</v>
       </c>
@@ -8365,7 +8473,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="194" spans="2:6">
+    <row r="194" spans="2:18">
       <c r="E194" s="6">
         <v>47293</v>
       </c>
@@ -8373,54 +8481,165 @@
         <v>5.32</v>
       </c>
     </row>
-    <row r="196" spans="2:6" ht="15.75">
+    <row r="195" spans="2:18">
+      <c r="R195" s="4"/>
+    </row>
+    <row r="196" spans="2:18" ht="15.75">
       <c r="B196" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="198" spans="2:18">
+      <c r="C198" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="2:18">
+      <c r="C200" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" ht="15.75">
+      <c r="B242" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="198" spans="2:6">
-      <c r="C198" s="15" t="s">
+    <row r="244" spans="2:6">
+      <c r="C244" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6">
+      <c r="C245" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="210" spans="2:3" ht="15.75">
-      <c r="B210" s="16" t="s">
+    <row r="247" spans="2:6">
+      <c r="C247" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6">
+      <c r="C249" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6">
+      <c r="E250" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F250" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6">
+      <c r="E251" s="6">
+        <v>23724</v>
+      </c>
+      <c r="F251" s="6">
+        <v>0.15390000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6">
+      <c r="E252" s="6">
+        <v>1482394</v>
+      </c>
+      <c r="F252" s="6">
+        <v>0.1424</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6">
+      <c r="E253" s="6">
+        <v>70421</v>
+      </c>
+      <c r="F253" s="6">
+        <v>0.1409</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6">
+      <c r="E254" s="6">
+        <v>448834</v>
+      </c>
+      <c r="F254" s="6">
+        <v>0.1391</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6">
+      <c r="E255" s="6">
+        <v>12431</v>
+      </c>
+      <c r="F255" s="6">
+        <v>0.12720000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6">
+      <c r="E256" s="6">
+        <v>1009996</v>
+      </c>
+      <c r="F256" s="6">
+        <v>0.12479999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6">
+      <c r="E257" s="6">
+        <v>462448</v>
+      </c>
+      <c r="F257" s="6">
+        <v>0.1232</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6">
+      <c r="E258" s="6">
+        <v>207747</v>
+      </c>
+      <c r="F258" s="6">
+        <v>0.1227</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6">
+      <c r="E259" s="6">
+        <v>47293</v>
+      </c>
+      <c r="F259" s="6">
+        <v>0.1222</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6">
+      <c r="E260" s="6">
+        <v>587642</v>
+      </c>
+      <c r="F260" s="6">
+        <v>0.1215</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" ht="15.75">
+      <c r="B262" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="212" spans="2:3">
-      <c r="C212" s="15" t="s">
+    <row r="264" spans="2:6">
+      <c r="C264" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" ht="15.75">
+      <c r="B273" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3">
+      <c r="C275" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="213" spans="2:3">
-      <c r="C213" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" ht="15.75">
-      <c r="B215" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3">
-      <c r="C217" s="15" t="s">
+    <row r="276" spans="2:3">
+      <c r="C276" s="15" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" ht="15.75">
-      <c r="B219" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="221" spans="2:3">
-      <c r="C221" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="222" spans="2:3">
-      <c r="C222" s="15" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/information_recovery/practice3/Practice_03_IR_indexing_weighting.xlsx
+++ b/information_recovery/practice3/Practice_03_IR_indexing_weighting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Python\olmedo-vinueza-alexander-daniel\information_recovery\practice3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F20BF59-2025-4A6C-AED0-8C6E20144788}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95D3970-2E47-4FF9-B0E0-4B79B5F35319}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17355" yWindow="6330" windowWidth="21600" windowHeight="11385" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>Exercise 2: Collection Statistics</t>
   </si>
@@ -194,72 +194,6 @@
   </si>
   <si>
     <t>Compute the score of each document for the query « web ranking scoring algorithm », using the index based</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">on SMART </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPS-ItalicMT"/>
-      </rPr>
-      <t xml:space="preserve">ltc </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPSMT"/>
-      </rPr>
-      <t>weighting function. Print the list of the ten most relevant documents, and their relevance score.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Compute a weighted index based on </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPS-ItalicMT"/>
-      </rPr>
-      <t xml:space="preserve">BM25 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPSMT"/>
-      </rPr>
-      <t>weighting function.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">on </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPS-ItalicMT"/>
-      </rPr>
-      <t xml:space="preserve">BM25 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPSMT"/>
-      </rPr>
-      <t>weighting function. Print the list of the ten most relevant documents, and their relevance score.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -490,12 +424,93 @@
   <si>
     <t>Result:</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compute a weighted index based on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-ItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">BM25 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t>weighting function.</t>
+    </r>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>The scores were calculated using the BM25 weighting function</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-ItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">BM25 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t>weighting function. Print the list of the ten most relevant documents, and their relevance score.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">on SMART </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-ItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">ltc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t>weighting function. Print the list of the ten most relevant documents, and their relevance score.</t>
+    </r>
+  </si>
+  <si>
+    <t>Code: The code is the same as Exercise 5, but using the bm25 index as input</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,17 +587,6 @@
       <name val="TimesNewRomanPS-BoldMT"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="TimesNewRomanPSMT"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="TimesNewRomanPS-ItalicMT"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="12"/>
@@ -639,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -658,7 +662,6 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -7484,6 +7487,153 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B853BE0-B1DE-4D8C-B1A4-761089316B39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="50863500"/>
+          <a:ext cx="6038850" cy="3829363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>312232</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>18474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF829719-4860-4589-9B4D-F3A054ACCBEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924176" y="57083324"/>
+          <a:ext cx="5655756" cy="3161725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>171137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8A19E6-A804-4A2B-A01A-5854A7DADFEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="55387875"/>
+          <a:ext cx="5200650" cy="1009337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7787,10 +7937,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:R276"/>
+  <dimension ref="B2:R335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I266" sqref="I266"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H327" sqref="H327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8350,27 +8500,27 @@
     </row>
     <row r="116" spans="2:3">
       <c r="C116" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="2:3">
       <c r="C118" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="3:3">
       <c r="C133" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155" spans="2:3" ht="15.75">
-      <c r="B155" s="16" t="s">
-        <v>37</v>
+      <c r="B155" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="157" spans="2:3">
@@ -8380,25 +8530,25 @@
     </row>
     <row r="158" spans="2:3">
       <c r="C158" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="160" spans="2:3">
       <c r="C160" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="182" spans="3:6">
       <c r="C182" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="184" spans="3:6">
-      <c r="E184" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F184" s="17" t="s">
-        <v>48</v>
+      <c r="E184" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F184" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="185" spans="3:6">
@@ -8485,56 +8635,56 @@
       <c r="R195" s="4"/>
     </row>
     <row r="196" spans="2:18" ht="15.75">
-      <c r="B196" s="16" t="s">
-        <v>38</v>
+      <c r="B196" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="198" spans="2:18">
       <c r="C198" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="200" spans="2:18">
       <c r="C200" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="223" spans="3:3">
       <c r="C223" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="242" spans="2:6" ht="15.75">
-      <c r="B242" s="16" t="s">
-        <v>39</v>
+      <c r="B242" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="244" spans="2:6">
-      <c r="C244" s="15" t="s">
+      <c r="C244" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="245" spans="2:6">
-      <c r="C245" s="15" t="s">
-        <v>34</v>
+      <c r="C245" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="247" spans="2:6">
       <c r="C247" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="249" spans="2:6">
       <c r="C249" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="250" spans="2:6">
-      <c r="E250" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F250" s="17" t="s">
-        <v>48</v>
+      <c r="E250" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F250" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="251" spans="2:6">
@@ -8618,33 +8768,146 @@
       </c>
     </row>
     <row r="262" spans="2:6" ht="15.75">
-      <c r="B262" s="16" t="s">
-        <v>40</v>
+      <c r="B262" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="264" spans="2:6">
-      <c r="C264" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="273" spans="2:3" ht="15.75">
-      <c r="B273" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="275" spans="2:3">
-      <c r="C275" s="15" t="s">
+      <c r="C264" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6">
+      <c r="C266" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3">
+      <c r="C287" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3">
+      <c r="C296" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" ht="15.75">
+      <c r="B317" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3">
+      <c r="C319" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="276" spans="2:3">
-      <c r="C276" s="15" t="s">
-        <v>36</v>
+    <row r="320" spans="2:3">
+      <c r="C320" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="322" spans="3:6">
+      <c r="C322" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="324" spans="3:6">
+      <c r="C324" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="325" spans="3:6">
+      <c r="E325" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F325" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="326" spans="3:6">
+      <c r="E326" s="6">
+        <v>3503154</v>
+      </c>
+      <c r="F326" s="6">
+        <v>5.2370000000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="3:6">
+      <c r="E327" s="6">
+        <v>465576</v>
+      </c>
+      <c r="F327" s="6">
+        <v>5.0259999999999998</v>
+      </c>
+    </row>
+    <row r="328" spans="3:6">
+      <c r="E328" s="6">
+        <v>18096221</v>
+      </c>
+      <c r="F328" s="6">
+        <v>4.9950000000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="3:6">
+      <c r="E329" s="6">
+        <v>23724</v>
+      </c>
+      <c r="F329" s="6">
+        <v>4.9779999999999998</v>
+      </c>
+    </row>
+    <row r="330" spans="3:6">
+      <c r="E330" s="6">
+        <v>1009996</v>
+      </c>
+      <c r="F330" s="6">
+        <v>4.9139999999999997</v>
+      </c>
+    </row>
+    <row r="331" spans="3:6">
+      <c r="E331" s="6">
+        <v>18543218</v>
+      </c>
+      <c r="F331" s="6">
+        <v>4.9109999999999996</v>
+      </c>
+    </row>
+    <row r="332" spans="3:6">
+      <c r="E332" s="6">
+        <v>6422823</v>
+      </c>
+      <c r="F332" s="6">
+        <v>4.8090000000000002</v>
+      </c>
+    </row>
+    <row r="333" spans="3:6">
+      <c r="E333" s="6">
+        <v>1793571</v>
+      </c>
+      <c r="F333" s="6">
+        <v>4.8070000000000004</v>
+      </c>
+    </row>
+    <row r="334" spans="3:6">
+      <c r="E334" s="6">
+        <v>1482394</v>
+      </c>
+      <c r="F334" s="6">
+        <v>4.7430000000000003</v>
+      </c>
+    </row>
+    <row r="335" spans="3:6">
+      <c r="E335" s="6">
+        <v>3940868</v>
+      </c>
+      <c r="F335" s="6">
+        <v>4.5259999999999998</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="41" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="50" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>